--- a/allen/ResultsTable.xlsx
+++ b/allen/ResultsTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannah/Dropbox/Share2Wang/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allen/Documents/course/4490/Jan.29/allen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC8611E-9F4D-4843-B59F-FA95535C57C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA08A46-694A-AA47-BBCB-55EFBA9E2C17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="460" windowWidth="22340" windowHeight="15540" xr2:uid="{AC1511F3-6BA7-BE48-A015-DD3B5079386A}"/>
+    <workbookView xWindow="7920" yWindow="1520" windowWidth="27640" windowHeight="20920" xr2:uid="{AC1511F3-6BA7-BE48-A015-DD3B5079386A}"/>
   </bookViews>
   <sheets>
     <sheet name="order diff" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="153">
   <si>
     <t>gender</t>
   </si>
@@ -466,6 +466,33 @@
   </si>
   <si>
     <t>stressGroup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High: 0.74 </t>
+  </si>
+  <si>
+    <t>Medium: 0.75</t>
+  </si>
+  <si>
+    <t>Low: 0.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High: 0.75 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium: 0.71 </t>
+  </si>
+  <si>
+    <t>Low: 0.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High: 0.71 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium: 0.69 </t>
+  </si>
+  <si>
+    <t>Low: 0.72</t>
   </si>
 </sst>
 </file>
@@ -644,7 +671,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -705,6 +732,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1025,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{297C771C-02E5-B94B-A122-98B3A6C4731F}">
-  <dimension ref="A1:AC43"/>
+  <dimension ref="A1:AC63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" workbookViewId="0">
-      <selection activeCell="V31" sqref="V31"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1192,6 +1222,9 @@
         <v>1</v>
       </c>
       <c r="Q2" s="14"/>
+      <c r="R2">
+        <v>0.81</v>
+      </c>
       <c r="S2">
         <v>22</v>
       </c>
@@ -1202,11 +1235,29 @@
       <c r="U2" s="30">
         <v>1</v>
       </c>
+      <c r="V2">
+        <v>0.81</v>
+      </c>
+      <c r="W2">
+        <v>0.81</v>
+      </c>
       <c r="X2" s="29">
         <v>1</v>
       </c>
+      <c r="Y2">
+        <v>0.81</v>
+      </c>
+      <c r="Z2">
+        <v>0.78</v>
+      </c>
       <c r="AA2" s="31">
         <v>1</v>
+      </c>
+      <c r="AB2">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="AC2">
+        <v>0.86</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -1253,6 +1304,9 @@
         <v>2</v>
       </c>
       <c r="Q3" s="14"/>
+      <c r="R3">
+        <v>0.89</v>
+      </c>
       <c r="S3" s="3">
         <v>10</v>
       </c>
@@ -1263,11 +1317,29 @@
       <c r="U3" s="30">
         <v>2</v>
       </c>
+      <c r="V3">
+        <v>0.92</v>
+      </c>
+      <c r="W3">
+        <v>0.81</v>
+      </c>
       <c r="X3" s="29">
         <v>2</v>
       </c>
+      <c r="Y3">
+        <v>0.86</v>
+      </c>
+      <c r="Z3">
+        <v>0.78</v>
+      </c>
       <c r="AA3" s="31">
         <v>2</v>
+      </c>
+      <c r="AB3">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="AC3">
+        <v>0.75</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1317,6 +1389,9 @@
         <v>3</v>
       </c>
       <c r="Q4" s="14"/>
+      <c r="R4">
+        <v>0.64</v>
+      </c>
       <c r="S4" s="7">
         <v>19</v>
       </c>
@@ -1327,11 +1402,29 @@
       <c r="U4" s="30">
         <v>3</v>
       </c>
+      <c r="V4">
+        <v>0.75</v>
+      </c>
+      <c r="W4">
+        <v>0.61</v>
+      </c>
       <c r="X4" s="29">
         <v>3</v>
       </c>
+      <c r="Y4">
+        <v>0.72</v>
+      </c>
+      <c r="Z4">
+        <v>0.72</v>
+      </c>
       <c r="AA4" s="31">
         <v>3</v>
+      </c>
+      <c r="AB4">
+        <v>0.75</v>
+      </c>
+      <c r="AC4">
+        <v>0.69</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1378,6 +1471,9 @@
         <v>4</v>
       </c>
       <c r="Q5" s="14"/>
+      <c r="R5">
+        <v>0.75</v>
+      </c>
       <c r="S5" s="3">
         <v>17</v>
       </c>
@@ -1388,11 +1484,29 @@
       <c r="U5" s="30">
         <v>4</v>
       </c>
+      <c r="V5">
+        <v>0.81</v>
+      </c>
+      <c r="W5">
+        <v>0.83</v>
+      </c>
       <c r="X5" s="29">
         <v>4</v>
       </c>
+      <c r="Y5">
+        <v>0.86</v>
+      </c>
+      <c r="Z5">
+        <v>0.81</v>
+      </c>
       <c r="AA5" s="31">
         <v>4</v>
+      </c>
+      <c r="AB5">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="AC5">
+        <v>0.61</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1439,6 +1553,9 @@
         <v>5</v>
       </c>
       <c r="Q6" s="14"/>
+      <c r="R6">
+        <v>0.56000000000000005</v>
+      </c>
       <c r="S6">
         <v>23</v>
       </c>
@@ -1449,11 +1566,29 @@
       <c r="U6" s="30">
         <v>5</v>
       </c>
+      <c r="V6">
+        <v>0.64</v>
+      </c>
+      <c r="W6">
+        <v>0.57999999999999996</v>
+      </c>
       <c r="X6" s="29">
         <v>5</v>
       </c>
+      <c r="Y6">
+        <v>0.67</v>
+      </c>
+      <c r="Z6">
+        <v>0.56000000000000005</v>
+      </c>
       <c r="AA6" s="31">
         <v>5</v>
+      </c>
+      <c r="AB6">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="AC6">
+        <v>0.81</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1500,6 +1635,9 @@
         <v>6</v>
       </c>
       <c r="Q7" s="14"/>
+      <c r="R7">
+        <v>0.72</v>
+      </c>
       <c r="S7" s="7">
         <v>14</v>
       </c>
@@ -1510,11 +1648,29 @@
       <c r="U7" s="30">
         <v>6</v>
       </c>
+      <c r="V7">
+        <v>0.72</v>
+      </c>
+      <c r="W7">
+        <v>0.69</v>
+      </c>
       <c r="X7" s="29">
         <v>6</v>
       </c>
+      <c r="Y7">
+        <v>0.67</v>
+      </c>
+      <c r="Z7">
+        <v>0.67</v>
+      </c>
       <c r="AA7" s="31">
         <v>6</v>
+      </c>
+      <c r="AB7">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="AC7">
+        <v>0.83</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1561,6 +1717,9 @@
         <v>7</v>
       </c>
       <c r="Q8" s="14"/>
+      <c r="R8">
+        <v>0.75</v>
+      </c>
       <c r="S8" s="3">
         <v>9</v>
       </c>
@@ -1571,11 +1730,29 @@
       <c r="U8" s="30">
         <v>7</v>
       </c>
+      <c r="V8">
+        <v>0.67</v>
+      </c>
+      <c r="W8">
+        <v>0.64</v>
+      </c>
       <c r="X8" s="29">
         <v>7</v>
       </c>
+      <c r="Y8">
+        <v>0.61</v>
+      </c>
+      <c r="Z8">
+        <v>0.67</v>
+      </c>
       <c r="AA8" s="31">
         <v>7</v>
+      </c>
+      <c r="AB8">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="AC8">
+        <v>0.86</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1622,6 +1799,9 @@
         <v>8</v>
       </c>
       <c r="Q9" s="14"/>
+      <c r="R9">
+        <v>0.94</v>
+      </c>
       <c r="S9" s="7">
         <v>18</v>
       </c>
@@ -1632,11 +1812,29 @@
       <c r="U9" s="30">
         <v>8</v>
       </c>
+      <c r="V9">
+        <v>0.89</v>
+      </c>
+      <c r="W9">
+        <v>0.92</v>
+      </c>
       <c r="X9" s="29">
         <v>8</v>
       </c>
+      <c r="Y9">
+        <v>0.86</v>
+      </c>
+      <c r="Z9">
+        <v>0.83</v>
+      </c>
       <c r="AA9" s="31">
         <v>8</v>
+      </c>
+      <c r="AB9">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="AC9">
+        <v>0.64</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1683,6 +1881,9 @@
         <v>9</v>
       </c>
       <c r="Q10" s="14"/>
+      <c r="R10">
+        <v>0.89</v>
+      </c>
       <c r="S10" s="7">
         <v>23</v>
       </c>
@@ -1693,11 +1894,29 @@
       <c r="U10" s="30">
         <v>9</v>
       </c>
+      <c r="V10">
+        <v>0.89</v>
+      </c>
+      <c r="W10">
+        <v>0.92</v>
+      </c>
       <c r="X10" s="29">
         <v>9</v>
       </c>
+      <c r="Y10">
+        <v>0.94</v>
+      </c>
+      <c r="Z10">
+        <v>0.86</v>
+      </c>
       <c r="AA10" s="31">
         <v>9</v>
+      </c>
+      <c r="AB10">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="AC10">
+        <v>0.75</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1744,6 +1963,9 @@
         <v>10</v>
       </c>
       <c r="Q11" s="14"/>
+      <c r="R11">
+        <v>0.69</v>
+      </c>
       <c r="S11" s="7">
         <v>10</v>
       </c>
@@ -1754,11 +1976,29 @@
       <c r="U11" s="30">
         <v>10</v>
       </c>
+      <c r="V11">
+        <v>0.69</v>
+      </c>
+      <c r="W11">
+        <v>0.75</v>
+      </c>
       <c r="X11" s="29">
         <v>10</v>
       </c>
+      <c r="Y11">
+        <v>0.69</v>
+      </c>
+      <c r="Z11">
+        <v>0.64</v>
+      </c>
       <c r="AA11" s="31">
         <v>10</v>
+      </c>
+      <c r="AB11">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="AC11">
+        <v>0.69</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1808,6 +2048,9 @@
         <v>11</v>
       </c>
       <c r="Q12" s="14"/>
+      <c r="R12">
+        <v>0.75</v>
+      </c>
       <c r="S12" s="7">
         <v>8</v>
       </c>
@@ -1818,8 +2061,20 @@
       <c r="U12" s="30">
         <v>11</v>
       </c>
+      <c r="V12">
+        <v>0.81</v>
+      </c>
+      <c r="W12">
+        <v>0.69</v>
+      </c>
       <c r="X12" s="29">
         <v>11</v>
+      </c>
+      <c r="Y12">
+        <v>0.72</v>
+      </c>
+      <c r="Z12">
+        <v>0.81</v>
       </c>
       <c r="AA12">
         <v>11</v>
@@ -1869,18 +2124,30 @@
         <v>12</v>
       </c>
       <c r="Q13" s="14"/>
+      <c r="R13">
+        <v>0.78</v>
+      </c>
       <c r="S13" s="7">
         <v>13</v>
       </c>
       <c r="T13" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(S13&lt;=12,"L",IF(S13&gt;18,"H", "M"))</f>
         <v>M</v>
       </c>
       <c r="U13" s="30">
         <v>12</v>
       </c>
+      <c r="V13">
+        <v>0.67</v>
+      </c>
+      <c r="W13">
+        <v>0.67</v>
+      </c>
       <c r="X13">
         <v>12</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
       </c>
       <c r="AA13">
         <v>12</v>
@@ -1930,6 +2197,9 @@
         <v>13</v>
       </c>
       <c r="Q14" s="14"/>
+      <c r="R14">
+        <v>0.81</v>
+      </c>
       <c r="S14" s="7">
         <v>12</v>
       </c>
@@ -1940,8 +2210,20 @@
       <c r="U14" s="30">
         <v>13</v>
       </c>
+      <c r="V14">
+        <v>0.86</v>
+      </c>
+      <c r="W14">
+        <v>0.89</v>
+      </c>
       <c r="X14" s="29">
         <v>13</v>
+      </c>
+      <c r="Y14">
+        <v>0.89</v>
+      </c>
+      <c r="Z14">
+        <v>0.86</v>
       </c>
       <c r="AA14">
         <v>13</v>
@@ -1994,6 +2276,9 @@
         <v>14</v>
       </c>
       <c r="Q15" s="14"/>
+      <c r="R15">
+        <v>0.75</v>
+      </c>
       <c r="S15" s="7">
         <v>20</v>
       </c>
@@ -2004,8 +2289,20 @@
       <c r="U15" s="30">
         <v>14</v>
       </c>
+      <c r="V15">
+        <v>0.67</v>
+      </c>
+      <c r="W15">
+        <v>0.75</v>
+      </c>
       <c r="X15" s="29">
         <v>14</v>
+      </c>
+      <c r="Y15">
+        <v>0.75</v>
+      </c>
+      <c r="Z15">
+        <v>0.72</v>
       </c>
       <c r="AA15">
         <v>14</v>
@@ -2058,6 +2355,9 @@
         <v>15</v>
       </c>
       <c r="Q16" s="14"/>
+      <c r="R16">
+        <v>0.67</v>
+      </c>
       <c r="S16" s="9">
         <v>21</v>
       </c>
@@ -2068,14 +2368,32 @@
       <c r="U16" s="30">
         <v>15</v>
       </c>
+      <c r="V16">
+        <v>0.75</v>
+      </c>
+      <c r="W16">
+        <v>0.78</v>
+      </c>
       <c r="X16" s="29">
         <v>15</v>
       </c>
+      <c r="Y16">
+        <v>0.81</v>
+      </c>
+      <c r="Z16">
+        <v>0.72</v>
+      </c>
       <c r="AA16" s="31">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AB16">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="AC16">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
       <c r="A17" s="28" t="s">
         <v>80</v>
       </c>
@@ -2119,6 +2437,9 @@
         <v>16</v>
       </c>
       <c r="Q17" s="14"/>
+      <c r="R17">
+        <v>0.75</v>
+      </c>
       <c r="S17" s="9">
         <v>13</v>
       </c>
@@ -2129,14 +2450,32 @@
       <c r="U17" s="30">
         <v>16</v>
       </c>
+      <c r="V17">
+        <v>0.83</v>
+      </c>
+      <c r="W17">
+        <v>0.83</v>
+      </c>
       <c r="X17" s="29">
         <v>16</v>
       </c>
+      <c r="Y17">
+        <v>0.78</v>
+      </c>
+      <c r="Z17">
+        <v>0.81</v>
+      </c>
       <c r="AA17" s="31">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AB17">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="AC17">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
       <c r="A18" s="28" t="s">
         <v>84</v>
       </c>
@@ -2180,6 +2519,9 @@
         <v>17</v>
       </c>
       <c r="Q18" s="14"/>
+      <c r="R18">
+        <v>0.9</v>
+      </c>
       <c r="S18" s="7">
         <v>0</v>
       </c>
@@ -2190,14 +2532,32 @@
       <c r="U18" s="30">
         <v>17</v>
       </c>
+      <c r="V18">
+        <v>0.67</v>
+      </c>
+      <c r="W18">
+        <v>0.73</v>
+      </c>
       <c r="X18" s="29">
         <v>17</v>
       </c>
+      <c r="Y18">
+        <v>0.77</v>
+      </c>
+      <c r="Z18">
+        <v>0.81</v>
+      </c>
       <c r="AA18" s="31">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AB18">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="AC18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
       <c r="A19" s="28" t="s">
         <v>85</v>
       </c>
@@ -2241,6 +2601,9 @@
         <v>18</v>
       </c>
       <c r="Q19" s="14"/>
+      <c r="R19">
+        <v>0.67</v>
+      </c>
       <c r="S19" s="7">
         <v>28</v>
       </c>
@@ -2251,14 +2614,32 @@
       <c r="U19" s="30">
         <v>18</v>
       </c>
+      <c r="V19">
+        <v>0.67</v>
+      </c>
+      <c r="W19">
+        <v>0.7</v>
+      </c>
       <c r="X19" s="29">
         <v>18</v>
       </c>
+      <c r="Y19">
+        <v>0.87</v>
+      </c>
+      <c r="Z19">
+        <v>0.77</v>
+      </c>
       <c r="AA19" s="31">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="AB19">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="AC19">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
       <c r="A20" s="28" t="s">
         <v>88</v>
       </c>
@@ -2305,6 +2686,9 @@
         <v>19</v>
       </c>
       <c r="Q20" s="14"/>
+      <c r="R20">
+        <v>0.63</v>
+      </c>
       <c r="S20" s="7">
         <v>13</v>
       </c>
@@ -2315,14 +2699,23 @@
       <c r="U20" s="30">
         <v>19</v>
       </c>
+      <c r="V20">
+        <v>0.6</v>
+      </c>
+      <c r="W20">
+        <v>0.7</v>
+      </c>
       <c r="X20">
         <v>19</v>
       </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
       <c r="AA20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:29">
       <c r="A21" s="28" t="s">
         <v>91</v>
       </c>
@@ -2366,6 +2759,9 @@
         <v>20</v>
       </c>
       <c r="Q21" s="14"/>
+      <c r="R21">
+        <v>0.89</v>
+      </c>
       <c r="S21" s="7">
         <v>7</v>
       </c>
@@ -2376,14 +2772,32 @@
       <c r="U21" s="30">
         <v>20</v>
       </c>
+      <c r="V21">
+        <v>0.86</v>
+      </c>
+      <c r="W21">
+        <v>0.86</v>
+      </c>
       <c r="X21" s="29">
         <v>20</v>
       </c>
+      <c r="Y21">
+        <v>0.89</v>
+      </c>
+      <c r="Z21">
+        <v>0.86</v>
+      </c>
       <c r="AA21" s="31">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="AB21">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="AC21">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
       <c r="A22" s="27" t="s">
         <v>93</v>
       </c>
@@ -2427,6 +2841,9 @@
         <v>21</v>
       </c>
       <c r="Q22" s="14"/>
+      <c r="R22">
+        <v>0.83</v>
+      </c>
       <c r="S22" s="9">
         <f>SUM(E22:N22)</f>
         <v>23</v>
@@ -2438,14 +2855,32 @@
       <c r="U22" s="30">
         <v>21</v>
       </c>
+      <c r="V22">
+        <v>0.81</v>
+      </c>
+      <c r="W22">
+        <v>0.81</v>
+      </c>
       <c r="X22" s="29">
         <v>21</v>
       </c>
+      <c r="Y22">
+        <v>0.86</v>
+      </c>
+      <c r="Z22">
+        <v>0.7</v>
+      </c>
       <c r="AA22" s="31">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="AB22">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="AC22">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29">
       <c r="A23" s="27" t="s">
         <v>94</v>
       </c>
@@ -2489,6 +2924,9 @@
         <v>22</v>
       </c>
       <c r="Q23" s="14"/>
+      <c r="R23">
+        <v>0.72</v>
+      </c>
       <c r="S23" s="9">
         <f>SUM(E23:N23)</f>
         <v>24</v>
@@ -2500,14 +2938,32 @@
       <c r="U23" s="30">
         <v>22</v>
       </c>
+      <c r="V23">
+        <v>0.78</v>
+      </c>
+      <c r="W23">
+        <v>0.72</v>
+      </c>
       <c r="X23" s="29">
         <v>22</v>
       </c>
+      <c r="Y23">
+        <v>0.69</v>
+      </c>
+      <c r="Z23">
+        <v>0.72</v>
+      </c>
       <c r="AA23" s="31">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="AB23">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="AC23">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29">
       <c r="A24" s="27" t="s">
         <v>95</v>
       </c>
@@ -2551,6 +3007,9 @@
         <v>23</v>
       </c>
       <c r="Q24" s="14"/>
+      <c r="R24">
+        <v>0.69</v>
+      </c>
       <c r="S24" s="9">
         <f>SUM(E24:N24)</f>
         <v>26</v>
@@ -2562,14 +3021,32 @@
       <c r="U24" s="30">
         <v>23</v>
       </c>
+      <c r="V24">
+        <v>0.75</v>
+      </c>
+      <c r="W24">
+        <v>0.75</v>
+      </c>
       <c r="X24" s="29">
         <v>23</v>
       </c>
+      <c r="Y24">
+        <v>0.67</v>
+      </c>
+      <c r="Z24">
+        <v>0.64</v>
+      </c>
       <c r="AA24" s="31">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:27">
+      <c r="AB24">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="AC24">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29">
       <c r="A25" s="22" t="s">
         <v>104</v>
       </c>
@@ -2613,6 +3090,9 @@
       <c r="Q25" s="14">
         <v>1</v>
       </c>
+      <c r="R25">
+        <v>0.86</v>
+      </c>
       <c r="S25" s="7">
         <v>11</v>
       </c>
@@ -2623,14 +3103,32 @@
       <c r="U25" s="30">
         <v>24</v>
       </c>
+      <c r="V25">
+        <v>0.81</v>
+      </c>
+      <c r="W25">
+        <v>0.86</v>
+      </c>
       <c r="X25" s="29">
         <v>24</v>
       </c>
+      <c r="Y25">
+        <v>0.86</v>
+      </c>
+      <c r="Z25">
+        <v>0.89</v>
+      </c>
       <c r="AA25" s="31">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:27">
+      <c r="AB25">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="AC25">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29">
       <c r="A26" s="22" t="s">
         <v>105</v>
       </c>
@@ -2674,6 +3172,9 @@
       <c r="Q26" s="14">
         <v>2</v>
       </c>
+      <c r="R26">
+        <v>0.75</v>
+      </c>
       <c r="S26" s="7">
         <v>13</v>
       </c>
@@ -2684,14 +3185,32 @@
       <c r="U26" s="30">
         <v>25</v>
       </c>
+      <c r="V26">
+        <v>0.89</v>
+      </c>
+      <c r="W26">
+        <v>0.86</v>
+      </c>
       <c r="X26" s="29">
         <v>25</v>
       </c>
+      <c r="Y26">
+        <v>0.89</v>
+      </c>
+      <c r="Z26">
+        <v>0.83</v>
+      </c>
       <c r="AA26" s="31">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:27">
+      <c r="AB26">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="AC26">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29">
       <c r="A27" s="22" t="s">
         <v>109</v>
       </c>
@@ -2735,6 +3254,9 @@
       <c r="Q27" s="14">
         <v>3</v>
       </c>
+      <c r="R27">
+        <v>0.81</v>
+      </c>
       <c r="S27" s="3">
         <v>25</v>
       </c>
@@ -2745,14 +3267,32 @@
       <c r="U27" s="30">
         <v>26</v>
       </c>
+      <c r="V27">
+        <v>0.81</v>
+      </c>
+      <c r="W27">
+        <v>0.89</v>
+      </c>
       <c r="X27" s="29">
         <v>26</v>
       </c>
+      <c r="Y27">
+        <v>0.86</v>
+      </c>
+      <c r="Z27">
+        <v>0.78</v>
+      </c>
       <c r="AA27" s="31">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:27">
+      <c r="AB27">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="AC27">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29">
       <c r="A28" s="22" t="s">
         <v>113</v>
       </c>
@@ -2796,6 +3336,9 @@
       <c r="Q28" s="14">
         <v>4</v>
       </c>
+      <c r="R28">
+        <v>0.53</v>
+      </c>
       <c r="S28" s="7">
         <v>7</v>
       </c>
@@ -2806,14 +3349,32 @@
       <c r="U28" s="30">
         <v>27</v>
       </c>
+      <c r="V28">
+        <v>0.72</v>
+      </c>
+      <c r="W28">
+        <v>0.69</v>
+      </c>
       <c r="X28" s="29">
         <v>27</v>
       </c>
+      <c r="Y28">
+        <v>0.69</v>
+      </c>
+      <c r="Z28">
+        <v>0.64</v>
+      </c>
       <c r="AA28" s="31">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:27">
+      <c r="AB28">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="AC28">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29">
       <c r="A29" s="22" t="s">
         <v>115</v>
       </c>
@@ -2857,6 +3418,9 @@
       <c r="Q29" s="14">
         <v>5</v>
       </c>
+      <c r="R29">
+        <v>0.75</v>
+      </c>
       <c r="S29" s="7">
         <v>28</v>
       </c>
@@ -2867,14 +3431,32 @@
       <c r="U29" s="30">
         <v>28</v>
       </c>
+      <c r="V29">
+        <v>0.72</v>
+      </c>
+      <c r="W29">
+        <v>0.67</v>
+      </c>
       <c r="X29" s="29">
         <v>28</v>
       </c>
+      <c r="Y29">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Z29">
+        <v>0.61</v>
+      </c>
       <c r="AA29" s="31">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:27">
+      <c r="AB29">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="AC29">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29">
       <c r="A30" s="22" t="s">
         <v>117</v>
       </c>
@@ -2918,6 +3500,9 @@
       <c r="Q30" s="14">
         <v>6</v>
       </c>
+      <c r="R30">
+        <v>0.83</v>
+      </c>
       <c r="S30" s="7">
         <v>14</v>
       </c>
@@ -2928,14 +3513,32 @@
       <c r="U30" s="30">
         <v>29</v>
       </c>
+      <c r="V30">
+        <v>0.72</v>
+      </c>
+      <c r="W30">
+        <v>0.69</v>
+      </c>
       <c r="X30" s="29">
         <v>29</v>
       </c>
+      <c r="Y30">
+        <v>0.72</v>
+      </c>
+      <c r="Z30">
+        <v>0.78</v>
+      </c>
       <c r="AA30" s="31">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:27">
+      <c r="AB30">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="AC30">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29">
       <c r="A31" s="22" t="s">
         <v>119</v>
       </c>
@@ -2979,6 +3582,9 @@
       <c r="Q31" s="14">
         <v>7</v>
       </c>
+      <c r="R31">
+        <v>0.87</v>
+      </c>
       <c r="S31" s="7">
         <v>8</v>
       </c>
@@ -2989,14 +3595,32 @@
       <c r="U31" s="30">
         <v>30</v>
       </c>
+      <c r="V31">
+        <v>0.8</v>
+      </c>
+      <c r="W31">
+        <v>0.77</v>
+      </c>
       <c r="X31" s="29">
         <v>30</v>
       </c>
+      <c r="Y31">
+        <v>0.73</v>
+      </c>
+      <c r="Z31">
+        <v>0.77</v>
+      </c>
       <c r="AA31" s="31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:27">
+      <c r="AB31">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="AC31">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29">
       <c r="A32" s="22" t="s">
         <v>120</v>
       </c>
@@ -3040,6 +3664,9 @@
       <c r="Q32" s="14">
         <v>8</v>
       </c>
+      <c r="R32">
+        <v>0.7</v>
+      </c>
       <c r="S32" s="7">
         <v>13</v>
       </c>
@@ -3050,14 +3677,32 @@
       <c r="U32" s="30">
         <v>31</v>
       </c>
+      <c r="V32">
+        <v>0.5</v>
+      </c>
+      <c r="W32">
+        <v>0.53</v>
+      </c>
       <c r="X32" s="29">
         <v>31</v>
       </c>
+      <c r="Y32">
+        <v>0.47</v>
+      </c>
+      <c r="Z32">
+        <v>0.4</v>
+      </c>
       <c r="AA32" s="31">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:27">
+      <c r="AB32">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="AC32">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29">
       <c r="A33" s="22" t="s">
         <v>121</v>
       </c>
@@ -3101,6 +3746,9 @@
       <c r="Q33" s="14">
         <v>9</v>
       </c>
+      <c r="R33">
+        <v>0.78</v>
+      </c>
       <c r="S33" s="7">
         <v>10</v>
       </c>
@@ -3111,14 +3759,32 @@
       <c r="U33" s="30">
         <v>32</v>
       </c>
+      <c r="V33">
+        <v>0.89</v>
+      </c>
+      <c r="W33">
+        <v>0.86</v>
+      </c>
       <c r="X33" s="29">
         <v>32</v>
       </c>
+      <c r="Y33">
+        <v>0.89</v>
+      </c>
+      <c r="Z33">
+        <v>0.83</v>
+      </c>
       <c r="AA33" s="31">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:27">
+      <c r="AB33">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="AC33">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29">
       <c r="A34" s="22" t="s">
         <v>122</v>
       </c>
@@ -3162,6 +3828,9 @@
       <c r="Q34" s="14">
         <v>10</v>
       </c>
+      <c r="R34">
+        <v>0.73</v>
+      </c>
       <c r="S34" s="7">
         <v>12</v>
       </c>
@@ -3172,14 +3841,32 @@
       <c r="U34" s="30">
         <v>33</v>
       </c>
+      <c r="V34">
+        <v>0.77</v>
+      </c>
+      <c r="W34">
+        <v>0.77</v>
+      </c>
       <c r="X34" s="29">
         <v>33</v>
       </c>
+      <c r="Y34">
+        <v>0.77</v>
+      </c>
+      <c r="Z34">
+        <v>0.7</v>
+      </c>
       <c r="AA34" s="31">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:27">
+      <c r="AB34">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="AC34">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29">
       <c r="A35" s="22" t="s">
         <v>123</v>
       </c>
@@ -3223,6 +3910,9 @@
       <c r="Q35" s="14">
         <v>11</v>
       </c>
+      <c r="R35">
+        <v>0.42</v>
+      </c>
       <c r="S35" s="7">
         <v>11</v>
       </c>
@@ -3233,14 +3923,29 @@
       <c r="U35" s="30">
         <v>34</v>
       </c>
+      <c r="V35">
+        <v>0.47</v>
+      </c>
+      <c r="W35">
+        <v>0.56000000000000005</v>
+      </c>
       <c r="X35" s="29">
         <v>34</v>
       </c>
+      <c r="Y35">
+        <v>0.42</v>
+      </c>
+      <c r="Z35">
+        <v>0.57999999999999996</v>
+      </c>
       <c r="AA35" s="31">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:27">
+      <c r="AB35">
+        <v>0.86099999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29">
       <c r="A36" s="22" t="s">
         <v>124</v>
       </c>
@@ -3284,6 +3989,9 @@
       <c r="Q36" s="14">
         <v>12</v>
       </c>
+      <c r="R36">
+        <v>0.69</v>
+      </c>
       <c r="S36" s="7">
         <v>16</v>
       </c>
@@ -3294,14 +4002,29 @@
       <c r="U36" s="30">
         <v>35</v>
       </c>
+      <c r="V36">
+        <v>0.72</v>
+      </c>
+      <c r="W36">
+        <v>0.75</v>
+      </c>
       <c r="X36" s="29">
         <v>35</v>
       </c>
+      <c r="Y36">
+        <v>0.64</v>
+      </c>
+      <c r="Z36">
+        <v>0.57999999999999996</v>
+      </c>
       <c r="AA36" s="31">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:27">
+      <c r="AB36">
+        <v>0.72199999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29">
       <c r="A37" s="27" t="s">
         <v>125</v>
       </c>
@@ -3345,6 +4068,9 @@
       <c r="Q37" s="14">
         <v>13</v>
       </c>
+      <c r="R37">
+        <v>0.67</v>
+      </c>
       <c r="S37" s="9">
         <v>20</v>
       </c>
@@ -3355,14 +4081,29 @@
       <c r="U37" s="30">
         <v>36</v>
       </c>
+      <c r="V37">
+        <v>0.81</v>
+      </c>
+      <c r="W37">
+        <v>0.78</v>
+      </c>
       <c r="X37" s="29">
         <v>36</v>
       </c>
+      <c r="Y37">
+        <v>0.78</v>
+      </c>
+      <c r="Z37">
+        <v>0.78</v>
+      </c>
       <c r="AA37" s="31">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:27">
+      <c r="AB37">
+        <v>0.80600000000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29">
       <c r="A38" s="28" t="s">
         <v>129</v>
       </c>
@@ -3409,6 +4150,9 @@
       <c r="Q38" s="14">
         <v>14</v>
       </c>
+      <c r="R38">
+        <v>0.5</v>
+      </c>
       <c r="S38" s="7">
         <v>25</v>
       </c>
@@ -3419,14 +4163,23 @@
       <c r="U38" s="30">
         <v>37</v>
       </c>
+      <c r="V38">
+        <v>0.69</v>
+      </c>
+      <c r="W38">
+        <v>0.64</v>
+      </c>
       <c r="X38">
         <v>37</v>
       </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
       <c r="AA38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:29">
       <c r="A39" s="22" t="s">
         <v>133</v>
       </c>
@@ -3470,6 +4223,9 @@
       <c r="Q39" s="14">
         <v>15</v>
       </c>
+      <c r="R39">
+        <v>0.79</v>
+      </c>
       <c r="S39" s="7">
         <v>16</v>
       </c>
@@ -3480,14 +4236,26 @@
       <c r="U39" s="30">
         <v>38</v>
       </c>
+      <c r="V39">
+        <v>0.75</v>
+      </c>
+      <c r="W39">
+        <v>0.75</v>
+      </c>
       <c r="X39" s="29">
         <v>38</v>
       </c>
+      <c r="Y39">
+        <v>0.75</v>
+      </c>
+      <c r="Z39">
+        <v>0.71</v>
+      </c>
       <c r="AA39" s="31">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:29">
       <c r="A40" s="22" t="s">
         <v>134</v>
       </c>
@@ -3530,6 +4298,9 @@
       <c r="P40" s="14"/>
       <c r="Q40" s="14">
         <v>16</v>
+      </c>
+      <c r="R40">
+        <v>0.44</v>
       </c>
       <c r="S40" s="7">
         <v>31</v>
@@ -3541,14 +4312,26 @@
       <c r="U40" s="30">
         <v>39</v>
       </c>
+      <c r="V40">
+        <v>0.64</v>
+      </c>
+      <c r="W40">
+        <v>0.64</v>
+      </c>
       <c r="X40" s="29">
         <v>39</v>
       </c>
+      <c r="Y40">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Z40">
+        <v>0.64</v>
+      </c>
       <c r="AA40" s="31">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:29">
       <c r="A41" s="27" t="s">
         <v>135</v>
       </c>
@@ -3595,6 +4378,9 @@
       <c r="Q41" s="14">
         <v>17</v>
       </c>
+      <c r="R41">
+        <v>0.72</v>
+      </c>
       <c r="S41" s="7">
         <v>9</v>
       </c>
@@ -3605,14 +4391,26 @@
       <c r="U41" s="30">
         <v>40</v>
       </c>
+      <c r="V41">
+        <v>0.72</v>
+      </c>
+      <c r="W41">
+        <v>0.72</v>
+      </c>
       <c r="X41" s="29">
         <v>40</v>
       </c>
+      <c r="Y41">
+        <v>0.67</v>
+      </c>
+      <c r="Z41">
+        <v>0.75</v>
+      </c>
       <c r="AA41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:29">
       <c r="A42" s="28" t="s">
         <v>138</v>
       </c>
@@ -3636,6 +4434,9 @@
       <c r="Q42" s="14">
         <v>18</v>
       </c>
+      <c r="R42">
+        <v>0.42</v>
+      </c>
       <c r="S42" t="s">
         <v>56</v>
       </c>
@@ -3645,14 +4446,23 @@
       <c r="U42" s="30">
         <v>41</v>
       </c>
+      <c r="V42">
+        <v>0.61</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
       <c r="X42" s="29">
         <v>41</v>
       </c>
+      <c r="Y42">
+        <v>0.61</v>
+      </c>
       <c r="AA42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:29">
       <c r="A43" s="27" t="s">
         <v>136</v>
       </c>
@@ -3699,6 +4509,9 @@
       <c r="Q43" s="14">
         <v>19</v>
       </c>
+      <c r="R43">
+        <v>0.67</v>
+      </c>
       <c r="S43" s="7" t="s">
         <v>56</v>
       </c>
@@ -3708,12 +4521,79 @@
       <c r="U43" s="30">
         <v>42</v>
       </c>
+      <c r="V43">
+        <v>0.64</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
       <c r="X43" s="29">
         <v>42</v>
       </c>
+      <c r="Y43">
+        <v>0.64</v>
+      </c>
       <c r="AA43">
         <v>42</v>
       </c>
+    </row>
+    <row r="44" spans="1:29">
+      <c r="W44">
+        <f>AVERAGE(W2:W41)</f>
+        <v>0.74675000000000002</v>
+      </c>
+      <c r="Y44">
+        <f>AVERAGE(Y2:Y12,Y14:Y19,Y21:Y37,Y39:Y42)</f>
+        <v>0.74473684210526314</v>
+      </c>
+      <c r="Z44">
+        <f>AVERAGE(Z2:Z12,Z14:Z19,Z21:Z37,Z39:Z41)</f>
+        <v>0.73</v>
+      </c>
+      <c r="AB44">
+        <f>AVERAGE(AB2:AB11,AB16:AB19,AB21:AB37)</f>
+        <v>0.73654838709677428</v>
+      </c>
+      <c r="AC44">
+        <f>AVERAGE(AC2:AC11,AC16:AC19,AC21:AC34)</f>
+        <v>0.70892857142857146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29">
+      <c r="W45" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z45" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC45" s="34" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29">
+      <c r="W46" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z46" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC46" s="34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29">
+      <c r="W47" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z47" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC47" s="34" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="63" spans="23:23">
+      <c r="W63" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>

--- a/allen/ResultsTable.xlsx
+++ b/allen/ResultsTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allen/Documents/course/4490/Jan.29/allen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA08A46-694A-AA47-BBCB-55EFBA9E2C17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B05D15-2A85-9D44-AEBD-4D900C983E59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="1520" windowWidth="27640" windowHeight="20920" xr2:uid="{AC1511F3-6BA7-BE48-A015-DD3B5079386A}"/>
+    <workbookView xWindow="2720" yWindow="460" windowWidth="27640" windowHeight="20540" xr2:uid="{AC1511F3-6BA7-BE48-A015-DD3B5079386A}"/>
   </bookViews>
   <sheets>
     <sheet name="order diff" sheetId="1" r:id="rId1"/>
@@ -1057,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{297C771C-02E5-B94B-A122-98B3A6C4731F}">
   <dimension ref="A1:AC63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="R36" sqref="R36"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="R44" sqref="R44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
